--- a/deuChatbot/research_result/results/meteor_score/meteor_version_2(2500_100).xlsx
+++ b/deuChatbot/research_result/results/meteor_score/meteor_version_2(2500_100).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6159,61 +6159,3469 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 진행되며, 준비물과 주제가 동일합니다. 실기종목별로 다음과 같이 준비해야 합니다:
+1. **기초디자인**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 잠자리와 저울을 연결하는 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **사고의 전환**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 콜라병과 계절을 연결하는 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+이러한 준비물과 주제는 각 분야에서 동일하게 적용되며, 제공된 사물과 이미지를 기반으로 창의적인 표현을 요구합니다. 제공된 사물은 모두 1회 이상 표현해야 하며, 색상 변경은 금지됩니다.
+실기시험은 각 분야별로 별도로 진행되므로, 지원자는 해당 분야에 맞는 준비물을 가져가야 합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3869486451898461</v>
+        <v>0.4610692102928128</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인이 있으며, 선택 가능한 실기종목은 다음과 같습니다:
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+     - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+     - 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+4. **화지크기**: 켄트지3절
+5. **시간**: 5시간
+이 정보를 참고하여 준비하시면 좋을 것 같습니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2863823380137978</v>
+        <v>0.6207601493679417</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+1. 배드민턴(남) 종목의 인정대회:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남) 종목의 인정대회:
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전
+이러한 대회들 중 일부는 특정 지역이나 연령 그룹에 한해 인정되므로, 지원자들은 해당 대회의 인정 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.7545365627644047</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다:
+1. **주제 A**
+   - 잠자리
+   - 무궁화
+   - 피망 (오이)
+   - 고양이
+   - 양파
+   - 달팽이
+   - 오렌지
+2. **주제 B**
+   - 악보
+   - 줄자
+   - 스카치테이프
+   - 자물쇠
+   - 반코팅장갑
+   - 저울
+   - 얼음
+참고로, 주제 A와 주제 B 각각에서 1개씩 선택하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 "잠자리와 저울" 또는 "악보와 줄자" 등이 될 수 있습니다.
+또한, 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상은 변경하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.356958105072274</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 기반으로, 학생부교과 전형에서는 출결 점수가 반영됩니다. 
+특히 나군 학생부종합(조기취업형계약학과전형)의 경우, 전형요소 반영비율에서 다음과 같이 명시되어 있습니다:
+- 서류(학생부) 60%
+- 면접 40%
+그러나 이는 특정 전형에 한정된 사항이며, 모든 학생부교과 전형에서 출결 점수가 반드시 반영되는 것은 아닙니다. 
+전반적으로 대부분의 학생부교과 전형에서는 주로 학업 성적을 중점으로 평가하며, 출결은 보조적인 요소로 간주됩니다.
+더 자세한 정보는 공식 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.05881422924901186</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원에서 인문사회과학대학은 인문사회과학대학이며, 계열은 인문사회이며, 모집단위은 국어국문학과 - 교직이며, 모집인원은 17이다."</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.1968840951891799</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과 - 교직은 다군 수능(일반학생전형) 모집단위로, 모집인원이 28명이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3665753424657534</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과 - 교직 - 간호교육인증의 나군 일반 학생 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.3532846715328468</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.7437452016438605</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 있습니다. 
+관련 정보:
+- 고교유형별 지원자격에서 모집군은 나군이며, 전형명은 학생부교과(농어촌학생전형)입니다.
+- 이 항목에서는 예술고도 지원 가능으로 표기되어 있습니다.
+따라서 예술고 출신의 학생도 농어촌학생전형을 통해 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.26757501927946</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 268～271cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.5469445462638112</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 출결의 반영 비율은 12%입니다.
+이 정보는 "전형요소 반영비율" 섹션에서 확인할 수 있으며, 해당 내용은 다음과 같습니다:
+전형요소 반영비율에서 전형 유형은 실기/실적 위주이며, 전형명은 다군 실기/실적(일반학생전형) 경기지도학과이며, 모집 인원은 7이며, 사정 단계은 일괄 합산이며, 전형요소 반영비율(%)의 출결은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.09445596346437912</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 정원 내 모집 인원이 4명입니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.6983585731956006</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.1343085106382979</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보가 제공된 범위 내에서는 명시되어 있지 않습니다. 
+제공된 데이터 중에서 응용화학과와 관련된 정보는 다음과 같습니다:
+- 수능(일반학생전형) 최초합격자에서 단과대학은 공과대학이며, 2024학년도 모집단위은 환경공학과, 화학공학과, 응용화학과이며, 모집 인원은 101이며, 지원 인원은 122이며, 경쟁률은 1.21이며, 충원 합격 (후보순위)은 21이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 276.61이며, 수능 4개 영역 등급의 평균은 5.59이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 385.99입니다.
+- 수능(일반학생전형) 최종등록자에서 단과대학은 공과대학이며, 2024학년도 모집단위은 환경공학과, 화학공학과, 응용화학과이며, 모집 인원은 101이며, 지원 인원은 122이며, 경쟁률은 1.21이며, 충원 합격 (후보순위)은 21이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 269.13이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차은 24.49이며, 영어 등급의 평균은 4.82이며, 수능 4개 영역 등급의 평균은 5.73이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 377.52입니다.
+위와 같은 정보는 해당 과목의 평균 점수와 경쟁률 등을 보여주고 있지만, 명확한 수능 최저기준은 언급되어 있지 않습니다. 
+따라서 정확한 수능 최저기준을 확인하려면 동의대학교의 공식 웹사이트인 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하거나, 입학처에 직접 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.01158517595764559</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 동의대학교에서는 총 4개의 신설 학과/학부가 추가되었습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.6030325443786984</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.5540256847205682</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 한의예과 수학(미적분/기하) 응시자에서 수능 가산점은 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+따라서, 동의대학교에서는 한의예과 수학(미적분/기하) 응시자를 대상으로 수능 가산점을 적용하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.438404293519512</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **반영 영역 및 비율**:
+   - 국어: 25%
+   - 수학: 25%
+   - 영어: 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목 합): 25%
+3. **가산점**: 가산점이 없습니다.
+따라서, 수능 성적은 국어, 수학, 영어, 탐구 영역에서 각각 25%씩 반영되며, 이들 영역의 점수를 합산하여 최종 평균 점수를 산출합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1359592052048532</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9976851851851852</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 다음과 같은 모집단위가 제외됩니다:
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- 체육학과
+- 경기지도학과
+이러한 정보는 "나군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.288382852826388</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 각 전형 요소 반영 비율 표에서 수능 항목의 비율이 0%로 나타나고, 수능최저기준 항목에 "수능최저기준 없음"이라고 명시되어 있기 때문입니다.
+따라서, 동의대학교 다군 전형은 수능 점수가 학생들의 입학 평가에서 중요한 역할을 하지 않는 것으로 보입니다. 이는 다른 전형 유형과 달리 수능 위주의 전형이 아닌 다른 요소들을 중점적으로 평가하는 방향성을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.1502339572192513</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같은 학과들이 2024학년도에 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.6188654246745373</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)는 2024. 01. 03.(수)부터 2024. 01. 06.(토)까지 마감되며, 이 기간 중 매일 오후 6시까지 접수 가능합니다.
+따라서 원서접수의 마감일은 2024년 1월 6일(토) 오후 6시입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.3018293519102603</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합(성인학습자전형)**
+   - **변경 전**: 학생부종합(성인학습자전형): 특성화고 등을 졸업한 재직자
+   - **변경 후**: 학생부종합(성인학습자(정원내)전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2. **학생부종합 평가 영역**
+   - **변경 전**: 인성 ㅣ 학업역량 ㅣ 전공적합성
+   - **변경 후**: 공동체역량 ㅣ 학업역량 ㅣ 전공적합성
+3. **전형요소 반영 비율**
+   - **변경 전**: 학생부종합(조기취업형계약학과전형): 서류(학생부)70%+면접30%
+   - **변경 후**: 학생부종합(조기취업형계약학과전형): 서류(학생부)60%+면접40%
+4. **학생부 교과성적 반영 방법**
+   - **변경 전**: 반영과목 전 모집단위(한의예과 제외) 8과목: 국어, 수학, 영어교과 중 석차등급 상위 8과목
+      4과목: 8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   - **변경 후**: 반영과목 전 모집단위(한의예과 제외) 12과목: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+이러한 변화는 학생들의 지원 자격 및 평가 방식에 영향을 미칠 수 있으므로 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.4845741415246074</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용에 따르면, 가군 실기/실적(일반학생전형)의 모집단위인 레저스포츠학과와 태권도학과에서는 실기 비중이 70%로 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.1885486577181208</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래 융합 분야에 초점을 맞추고 있으며, 다양한 산업과 사회적 변화를 반영한 세부 전공들을 통해 학생들에게 광범위한 지식과 역량을 기르는 교육을 제공할 예정입니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.3865330984881843</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과에서는 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.5506168540443738</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+이 두 학과의 경우, 실기/실적 위주 전형으로 지원할 수 있습니다.
+추가 정보:
+- 해당 전형의 일정은 1월 17일(수)에 실기고사가 예정되어 있습니다.
+- 대기실 및 입실시간 안내는 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인 가능합니다.
+자세한 내용은 공식 입학 안내 웹사이트 (http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.1828996043952014</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 미래융합대학에서 라이프융합학부는 다음과 같은 전공을 신설하여 제공합니다:
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+이러한 세 가지 전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.4859588477366255</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，根据提供的信息，你有可能符合东义大学一般学生招生的条件。具体来说：
+1. **招生对象**：你的学校类型（特教高中）在“高교유형별 지원자격”中被列为支持的对象。
+2. **招生类别**：
+   - **加军 (가군)** 和 **实机/实绩 (실기/실적)** 类型的一般学生招生，都支持特教高中的学生。
+因此，你符合东义大学一般学生招生的条件。但具体还需要确认以下几点：
+- 你需要查看具体的招生简章或咨询学校招生办公室以获取最准确的信息。
+- 确认你的高中是否在东义大学接受的特教高中名单中。
+- 核实是否有其他特定要求，如成绩、推荐信等。
+建议你访问 [东义大学官网](https://ipsi.deu.ac.kr/main.do) 获取最新和详细的信息。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.02645502645502646</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해 데이터를 분석해보겠습니다.
+1. **상경대학**:
+   - 재무부동산학과: 정원 내 모집인원 45명
+   - 무역학과 - 교직: 정원 내 모집인원 55명
+   - 유통물류학과: 정원 내 모집인원 46명
+2. **공과대학**:
+   - 로봇자동화공학과: 정원 내 모집인원 42명
+   - 조선해양공학과: 정원 내 모집인원 36명
+   - 신소재공학과: 정원 내 모집인원 52명
+   - 고분자나노공학과: 정원 내 모집인원 32명
+3. **인문사회과학대학**:
+   - 국어국문학과 - 교직: 정원 내 모집인원 45명
+   - 중어중국학과 - 교직: 정원 내 모집인원 46명
+   - 일본학과 - 교직: 정원 내 모집인원 55명
+   - 영어영문학과 - 교직: 정원 내 모집인원 50명
+4. **의료·보건·생활대학**:
+   - 간호학과 - 교직 - 간호교육인증: 정원 내 모집인원 110명
+   - 임상병리학과: 정원 내 모집인원 52명
+   - 치위생학과: 정원 내 모집인원 40명
+5. **미래융합대학**:
+   - 라이프융합학부 - 신설 - (스마트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 정원 내 모집인원 20명
+6. **공과대학**:
+   - 건축학과(5년제): 정원 내 모집인원 45명
+   - 토목공학과: 정원 내 모집인원 45명
+   - 도시공학과 - 교직: 정원 내 모집인원 35명
+7. **의료·보건·생활대학**:
+   - 간호학과 - 교직 - 간호교육인증: 정원 내 모집인원 110명 (이 학과는 가장 많은 인원을 모집하고 있습니다)
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **간호학과 - 교직 - 간호교육인증**으로 정원 내 모집인원이 110명입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.06612269172992453</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，根据提供的信息，你有可能符合东义大学学生部课程（农林农村学生选拔）的申请资格。具体来说：
+- **支持类型**：该计划支持所有类型的高中毕业生，包括普通高中、自主高中、特殊目的高中（如科学高中、国际高中、外语高中）、艺术高中、体育高中、技术高中、职业高中、特色高中（职业教育方向或一年以上的职业教育训练经历）、英才学校、其他学历认证高中、广播电视高中、各种学校以及自学考试合格者和国外高中毕业生。
+- **支持的特殊目的高中**：你的技术高中（如科学高中、国际高中、外语高中）是符合条件的。但是，具体的支持细节可能需要查看东义大学的具体招生简章或官方网站以获取最准确的信息。
+建议你访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 查看最新的招生信息和详细要求。如果有任何疑问，可以直接联系学校招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최종등록자 중 합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이 중에서 가장 중요한 것은 **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**인 317.87입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.09580509968273863</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 수능 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+추가 정보:
+- 모집 인원: 30명
+- 지원 인원: 146명
+- 경쟁률: 4.87
+- 충원 합격 (후보순위): 63명
+이 평균 점수는 전체 수험생들 중에서 상대적으로 높은 성적을 얻어야 했다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.1416605148477127</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정은 다음과 같습니다:
+- 최초 합격자 발표는 2024년 2월 2일(금) 14:00입니다.
+- 이어서 2월 7일(수)부터 2월 13일(화)까지 최초 합격자 등록을 진행합니다.
+- 다음으로 2월 14일(수) 9:00에 충원 합격자 1차 발표가 있습니다.
+- 이어서 2월 15일(목) 9:00에 충원 합격자 2차 발표가 있으며, 이와 동시에 등록도 가능합니다.
+- 마지막으로 2월 15일(목) 19:00부터 2월 20일(화) 18시까지는 충원 합격자 3차 이후 발표 및 등록이 이루어집니다.
+각 단계별로 합격자 발표와 등록이 진행되므로, 해당 일정을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.4440212564520274</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 실기고사 중 체육학과와 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)의 면접고사를 보러 가야 합니다. 
+참고로 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+만약 다른 전형의 면접일정이 궁금하시다면, 전체 전형 일정을 참조해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1358306372430666</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到韩医专业的最低学力标准（即最低学历要求）。根据已给的信息，关于韩医预科的描述如下：
+- **2024年主要变更事项**：
+  - 毕业生或同等学力持有者：한의예과 수학(미적분 또는 기하), 수학(확률과 통계) (毕业生或同等学历持有者：数学（微积分/几何），数学（概率与统计）)
+这表明韩医预科可能要求考生在高中阶段修过数学中的微积分、几何以及概率与统计课程。但是，具体的最低学力标准（如是否需要特定的高中毕业证书或其他资格证明）没有明确说明。
+如果需要更详细的信息，建议访问以下网站获取最新和最准确的信息：
+https://ipsi.deu.ac.kr/main.do
+或者直接联系学校招生办公室以获得确切的答案。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.05193905817174514</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 다음과 같은 정시 모집단위들의 수능 최저학력 기준을 확인할 수 있습니다:
+1. 가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외):
+   - 수능최저기준 없음
+2. 나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외):
+   - 수능최저기준 없음
+3. 다군 수능(일반학생전형) 전 모집단위:
+   - 수능최저기준 없음
+4. 가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과:
+   - 수능최저기준 없음
+5. 나군 실기/실적(일반학생전형) 디자인조형학과, 체육학과:
+   - 수능최저기준 없음
+6. 다군 실기/실적(일반학생전형) 경기지도학과:
+   - 수능최저기준 없음
+7. 나군 학생부교과(농어촌학생전형) - 정원외:
+   - 수능최저기준 없음
+8. 나군 학생부교과(평생학습자전형):
+   - 수능최저기준 없음
+9. 나군 학생부교과(성인학습자(정원내)전형):
+   - 수능최저기준 없음
+10. 나군 학생부교과(성인학습자(정원외)전형 - 정원외):
+    - 수능최저기준 없음
+11. 나군 학생부종합(재직자전형) - 정원외:
+    - 수능최저기준 없음
+12. 나군 학생부종합(재직자전형) - 정원외:
+    - 수능최저기준 없음
+13. 나군 학생부종합(조기취업형계약학과전형) - 정원외:
+    - 수능최저기준 없음
+위와 같이, 대부분의 정시 모집단위에서는 수능 최저학력 기준이 없습니다. 단, 경기지도학과는 실기/실적 위주로 평가하는 경우가 있어 수능 최저학력 기준이 없는 것으로 보입니다.
+만약 특정 모집단위에 대한 더 자세한 정보가 필요하시다면, 해당 대학의 입시 홈페이지나 입학처와 직접 확인해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.01687118228471612</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024. 02. 14.(수) 09:00에 충원 합격자 1차 (인터넷) 발표가 이루어집니다.
+또한, 같은 날인 2024. 02. 15.(목) 09:00에는 충원 합격자 2차 (인터넷) 발표도 있습니다.
+이후에 개별 전화 통보를 통해 3차 이후의 충원 합격자를 발표합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.4194857819363104</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도 추가합격자 발표 일정은 다음과 같습니다:
+- &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군의 경우 2024. 02. 02.(금) 14:00에 최초 합격자 발표가 있습니다.
+- 이어서 2024. 02. 14.(수) 09:00에 충원 합격자를 발표합니다 (1차 인터넷 발표).
+- 그 다음날인 2024. 02. 15.(목) 09:00에는 다시 충원 합격자를 발표합니다 (2차 인터넷 발표).
+- 마지막으로, 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지는 3차 이후 합격자를 발표합니다 (개별 전화 통보).
+이러한 일정에 따라 추가합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.2785652508168365</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以查看该网站上的最新公告或联系学校的招生办公室以确认是否有额外的招生计划。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학교에서 평생교육을 받은 학습자들을 위한 입학 전형 중 하나입니다. 주요 내용은 다음과 같습니다:
+1. 지원 자격:
+   - 국가·지방자치단체 및 공공단체 소속 직원
+   - 상시근로자 5인 이상 사업체 근로자 (4대 보험 가입 포함)
+   - 4대 보험 미가입자나 창업자, 자영업자 (공적증명서 확인 가능)
+2. 재직기간:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상 필요
+3. 전형 요소 및 비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류:
+   - 고교 졸업(예정)자: 고교 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증서, 성적증명서 (외국고교 졸업자는 공증받은 증명서 필요)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서, 성적증명서
+5. 서류 평가 영역:
+   - 공동체역량 (협업능력)
+   - 학업역량 (학업태도 / 성취도)
+   - 전공적합성 (열정)
+6. 면접 평가 영역:
+   - 학업역량: 문제해결 능력
+   - 전공적합성: 진로 정보 탐색 능력
+7. 동점자 처리 기준:
+   - 1등: 면접 성적 상위자
+   - 2등: 서류 평가 공동체역량 영역 성적 상위자
+   - 3등: 서류 평가 전공적합성 영역 성적 상위자
+8. 부정적 사례:
+   - 학생이 작성한 학교생활기록부 내용
+   - 동일 내용의 의도적인 반복 기재
+   - 과장된 내용 기재
+   - 학급/단체 단위의 내용 기재
+9. 면접 점수 배점:
+   - 학업역량: 180점 (1등급)
+   - 전공적합성: 120점 (1등급)
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 분들은 자격 요건과 제출서류 등을 체크하여 준비하시면 됩니다. 자세한 내용은 입학처 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.2644258806243704</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+위와 같은 조건을 충족해야 평생학습자전형의 지원 자격이 주어집니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.08239171374764594</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)과 17일(수)에 실기고사가 진행됩니다. 
+- 2024. 01. 16.(화): &lt;가&gt;군 실기고사 (태권도학과)
+- 2024. 01. 17.(수): &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)
+대기실 및 입실 시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.2452537593984962</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+- **일정**: 2024년 1월 17일(수)
+- **종목**:
+  - 제자리 멀리뛰기 (240점, 24%)
+  - 메디신볼 던지기 (243점, 23%)
+  - Z-런 (230점, 23%)
+실기고사는 이 세 가지 종목 중 하나만 응시하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.044579802259887</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년 동일한 입학전형 일정에 따르면, 수시 충원 합격자 발표 후에는 개별 전화 통보가 이루어집니다. 하지만 자세한 내용은 해당 해의 최신 입학규정이나 공지사항을 확인하시기 바랍니다. 
+현재 제공된 정보를 바탕으로 답변드리면:
+- **2024년 예상 일정**: 2월 15일 오후 7시 이후에 충원 합격자 발표가 있을 경우, 합격자에게 개별 전화 통보가 이루어질 것으로 예상됩니다.
+- **확실한 정보 확인**: 가장 정확한 정보는 동의대학교 입학처 웹사이트나 공식 안내문을 통해 확인하시기 바랍니다. 
+입학 관련 모든 일정과 절차는 변경될 수 있으므로, 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2246588363914299</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 자료에서 직접 확인할 수 없습니다. 하지만, 2024학년도 모집에 대한 상세한 정보가 포함되어 있으므로, 해당 학과의 2024학년도 모집 인원, 지원 인원, 경쟁률 등을 통해 추론할 수 있습니다.
+예를 들어, 제공된 2024학년도의 정보 중에서:
+- 경찰행정학과는 7명을 모집합니다.
+- 해당 학과에 지원한 인원은 29명입니다.
+- 경쟁률은 약 4.14:1입니다.
+이러한 데이터를 바탕으로, 2023학년도의 수시모집 결과와 유사하게 추정할 수 있습니다. 하지만 정확한 정보는 해당 대학의 공식 웹사이트나 입학처에서 확인해야 합니다.
+더 자세한 정보가 필요하시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1281292286874154</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 일부 전형에서 수능 응시를 필수로 하지 않는 경우가 있습니다. 특히, 나군의 학생부종합(평생학습자전형), 성인학습자전형, 재직자전형 등은 수능 응시가 아닌 다른 자격 요건을 통해 지원할 수 있습니다.
+예를 들어:
+- **학생부종합(평생학습자전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로 구성되어 있으며, 수능 응시가 필요하지 않습니다.
+- **학생부종합(성인학습자(정원내·외)전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자로 구성되어 있습니다. 이 경우에도 수능 응시가 필요하지 않습니다.
+- **학생부종합(재직자전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 재직 경력을 요구하며, 수능 응시는 필수 아닙니다.
+따라서, 수능을 응시하지 않은 경우에도 특정 전형에서는 지원이 가능합니다. 하지만 일반적으로 대부분의 전형은 수능 점수가 중요한 요소로 작용하므로, 가능한 한 좋은 수능 성적을 얻는 것이 유리할 것입니다. 자세한 내용은 입학 안내 홈페이지 (http://ipsi.deu.ac.kr)를 참조하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.03950332379129016</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도 동아대학교의 경우, 정시모집에 대한 구체적인 지원 자격 조건을 확인하기 위해서는 해당 대학의 입학처 웹사이트를 참조해야 합니다. 하지만 일반적으로 고등학교 졸업 후 10년이 지났다면, 정시 모집에서 지원하는 것은 어렵습니다.
+정시모집은 주로 고등학교 졸업생을 대상으로 하며, 특별한 경우 외에는 졸업 이후 오랜 시간이 지난 학생들의 지원을 허용하지 않습니다. 특히 2024학년도 동아대학교의 정시모집에서도 일반고, 자율고 등 다양한 고교 유형을 대상으로 하고 있지만, 졸업 후 오랜 시간이 지났다면 특별한 사유가 없는 한 지원이 어려울 것으로 예상됩니다.
+따라서, 정확한 정보를 얻기 위해서는 동아대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 방문하여 해당 년도의 정시모집 안내를 확인하시거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.1061842236510653</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감시간은 각 날짜별로 오후 6시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감시간은 각 날짜별로 오후 5시까지 도착
+   - 서류 제출 대상: (Ⅳ. 전형별 세부 안내 참조)
+   - 제출 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 확인
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 확인
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024년 2월 2일 (금) 오후 2시
+     - 비고: *발표: 홈페이지에서 개별 조회* *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령* *등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화), 은행마감시간 내
+     - 비고: *발표: 홈페이지에서 개별 조회* *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령* *등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록: 2024년 2월 14일 (수) 오전 9시
+     - 비고: *발표: 홈페이지에서 개별 조회* *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령* *등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 발표 및 등록: 2024년 2월 15일 (목) 오전 9시 ~ 오후 4시
+     - 비고: *발표: 홈페이지에서 개별 조회* *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령* *등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시까지
+     - 비고: *발표: 홈페이지에서 개별 조회* *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령* *등록장소: 학교 지정은행(등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시모집의 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 절차가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.5760270548412826</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감시간은 각각 해당 날짜의 오후 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com 참조
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감시간은 각각 해당 날짜의 오후 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) / 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 14시 이후 입학안내 홈페이지에서 확인
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 14시 이후 입학안내 홈페이지에서 확인
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 오후 14시
+     - 비고: *발표 : 홈페이지에서 개별 조회* / *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* / *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+     - 비고: *발표 : 홈페이지에서 개별 조회* / *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* / *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - 충원 합격자 1차 발표: 2024년 2월 14일 (수) 오전 9시
+     - 비고: *발표 : 홈페이지에서 개별 조회* / *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* / *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - 충원 합격자 1차 등록: 2024년 2월 14일 (수) 오전 9시 ~ 오후 4시
+     - 비고: *발표 : 홈페이지에서 개별 조회* / *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* / *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - 충원 합격자 2차 발표: 2024년 2월 15일 (목) 오전 9시
+     - 비고: *발표 : 홈페이지에서 개별 조회* / *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* / *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - 충원 합격자 2차 등록: 2024년 2월 15일 (목) 오전 9시 ~ 오후 4시
+     - 비고: *발표 : 홈페이지에서 개별 조회* / *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* / *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - 충원 합격자 3차 이후 발표: 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시까지
+     - 비고: *발표 : 홈페이지에서 개별 조회* / *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* / *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+이 일정들은 동의대학교 2024학년도 정시모집의 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 제출 사항을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.3444614804427873</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형으로는 "나군 실기/실적(경기실적우수자전형)"이 있습니다. 이 전형은 실기 및 실적을 중점적으로 평가하며, 수능 점수가 필요하지 않습니다.
+관련 정보:
+- **전형명**: 나군 실기/실적(경기실적우수자전형)
+- **모집단위**: 전 모집단위
+- **전형료**: 40,000원
+이 전형에서는 수능 점수가 필요하지 않으며, 주로 실기 및 실적을 평가합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1532244807886743</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 36명이었습니다. 이는 최초합격자(1차)와 충원 합격 (후보순위)을 통해 이루어졌으며, 구체적으로:
+- 최초합격자: 지원 인원 105명 중 모집인원 35명을 채우기 위해 69명이 최종 합격했습니다.
+- 충원 합격 (후보순위): 추가로 27명(35 - 8)명이 합격하여 총 36명이 전자공학과에 충원 합격하였습니다.
+따라서, 전년도에 전자공학과의 충원 합격은 최초합격자와 충원 합격 (후보순위)을 통해 모두 이루어졌으며, 3차까지 진행되었습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1401604386677498</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。建议您访问东义大学官网（https://ipsi.deu.ac.kr/main.do）上的联系方式页面，或者直接在官网上查找联系入学处的具体方式和电话号码。
+如果您需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격 사실이 확인됩니다. 그러나 이 경우에는 다음과 같은 절차를 따르게 됩니다:
+1. **발표**: 홈페이지에서 개별적으로 조회할 수 있습니다.
+2. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+3. **등록장소**: 학교 지정은행으로 등록해야 합니다 (등록금 고지서에 기재된 정보를 확인하세요).
+따라서, 전화 통화가 되지 않더라도 합격자 발표와 관련된 모든 정보는 홈페이지에서 확인할 수 있으며, 이에 따라 등록 절차를 진행하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1673054245283019</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정의 농어촌학생전형 지원 시 다음과 같은 서류가 필요합니다:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 (교육기관에서 발급)
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 또는 동의자에 한해)
+12년 과정의 농어촌학생전형 지원 시 다음과 같은 서류가 필요합니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 또는 동의자에 한해)
+추가로 최종 등록 시 다음과 같은 서류를 제출해야 합니다:
+- 6년 과정: 고교 졸업증명서, 지원자 본인, 부모 각 초본 1부 (총 3부)
+- 12년 과정: 고교 졸업증명서, 지원자 본인 초본 1부
+이러한 서류들은 농어촌 지역에서의 거주와 교육 경력을 입증하기 위한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.470905470784247</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야 하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+이 외에 추가로 제출해야 할 서류는 없습니다.
+주의할 점은 중·고등학교 재학 시 부모 모두가 농어촌 지역에서 거주한 경우 '6년과정'의 서류를 제출할 수 있다는 것입니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4828422565576716</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024学年是否取消了低收入机会均等招生类型。为了获取最准确的信息，建议直接访问以下网站进行查询：
+https://ipsi.deu.ac.kr/main.do
+您可以联系学校招生办公室或查看最新的招生简章以确认具体的招生政策和计划是否有变化。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5 등급은 수능 영어영역의 등급 중간값을 의미합니다. 한국의 대학입시에서 등급은 정수만 인정되므로, 2.5등급은 절사되어 3등급으로 처리됩니다.
+즉, 사탐(사회탐구) 2 과목의 평균이 2.5등급이라면, 이는 3등급으로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1889986678507993</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동일한 대학의 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+2. **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+3. **3차 이후 충원 합격자 발표**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지
+각 차례별로 합격자들의 홈페이지에서 개별적으로 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.2981055067169887</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看e비즈니스학과(e-Business)的相关招生信息。根据提供的信息，我们可以总结以下几点：
+1. **e비즈니스학과의 모집인원 및 지원자 수**:
+   - e비즈니스학과는 모집 인원이 95명이며, 지원 인원은 42명입니다.
+   - 경쟁률은 10.56:1 (42 / 95) 입니다.
+2. **수능 성적 분석**:
+   - e비즈니스학과의 수능 반영 비율은 국어, 수학, 영어, 탐구 중 각각 25%입니다.
+   - 평균 수능 점수는 434.13이며, 표준 편차는 7.46입니다.
+3. **개별 지원자의 성적**:
+   - 주어진 지원자의 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합은 313.13입니다.
+   - 이 점수가 4.6이면, 평균보다 약간 낮습니다.
+4. **합격 가능성**:
+   - e비즈니스학과의 경쟁률이 매우 높기 때문에, 주어진 지원자의 성적은 평균보다 낮지만, 여전히 합격 가능성이 있습니다.
+   - 그러나, 정확한 합격 가능성은 최종 등록자들의 수능 점수 분포와 지원자의 전체적인 경쟁력을 고려해야 합니다.
+따라서, 주어진 정보만으로는 확실하게 답변하기 어렵습니다. 하지만, 4.6의 성적은 평균보다 낮지만, 여전히 합격 가능성은 있습니다. 최종 결정을 내리기 위해서는 해당 단과대학의 최종 등록자들의 수능 점수 분포와 지원자의 전체적인 경쟁력을 고려해야 합니다.
+추가 정보를 얻으시려면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.210879698367682</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능(일반학생전형) 최초합격자들의 성적 분석을 보면, 평균 등급이 3.88이며, 표준 편차가 0.19입니다.
+- 평균 등급: 3.88
+- 표준 편차: 0.19
+당신의 수능 등급이 5.3이라면, 이는 평균보다 상당히 높은 점수입니다. 실제 데이터를 바탕으로 예측하면:
+1. **평균 이상의 성적**: 당신의 등급이 평균(3.88)보다 훨씬 높으므로, 충분한 경쟁력을 가지고 있습니다.
+2. **표준 편차 고려**: 표준 편차가 0.19로 매우 낮기 때문에, 이 수준의 등급은 상당히 높은 성적을 나타냅니다.
+따라서, 정시 등급이 5.3인 경우 e비즈니스학과에 최초 합격 가능성은 매우 높습니다. 실제로 표준 편차가 작다는 것은 해당 단과대학의 수험생들이 일정한 성적 범위 내에서 분포하고 있다는 것을 의미하며, 당신이 이 범위를 크게 초과하는 점수를 얻었다면 합격 가능성은 매우 높습니다.
+하지만 최종 결정을 내리기 위해서는 동의대학교의 정확한 합격 기준이나 추가적인 요인들을 고려해야 합니다. 따라서, 동의대학교의 공식 홈페이지나 입학처에 문의하여 가장 최신 정보와 자세한 설명을 얻는 것이 좋습니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.1520704732510288</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024학년도의 전형방법과 평균 점수 등을 고려해보겠습니다. 
+1. **모집인원 및 지원자 수**: e비즈니스학전공은 모집인원이 10명이고, 지원자가 89명입니다 (경쟁률 8.9:1).
+2. **평균 점수**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 308.58
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 426.25
+3. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차는 10.96
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차는 14.02
+이정도 성적을 가지고 예비합격 가능성은 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 308.58, 표준 편차 10.96
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 426.25, 표준 편차 14.02
+이정도 성적은 평균보다 약간 낮지만, 표준 편차를 고려하면 상위권에 속합니다.
+**추천 사항**:
+- **면접 준비**: 면접에서는 지원동기와 학업계획, 전공적합성 등을 잘 준비해야 합니다.
+- **서류 제출**: 서류 평가에서도 공동체역량, 학업역량, 전공적합성을 잘 보여주는 내용을 포함시켜야 합니다.
+**결론**:
+이정도 성적은 예비합격 가능성은 있지만, 확실한 예비합격을 위해서는 면접과 서류 평가에서도 뛰어난 성적을 보여줘야 합니다. 따라서 최선을 다해 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.04841517206182561</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 지원자들의 수능 성적 분포를 보면, 평균 점수가 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 353.48
+- 영어 등급의 평균: 2.34
+당신의 성적인 3.44는 이 수치에 비해 상대적으로 높습니다. 특히, 영어 등급이 3.0 이상으로 높은 점수를 받았다면 더욱 유리할 것입니다.
+그러나 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+1. **경쟁률**: 간호학과의 경쟁률이 매우 높습니다 (6.59). 이는 많은 지원자가 높은 점수를 받았음을 의미합니다.
+2. **전형별 성적 분포**: 다른 전형(예: 나군, 다군)에서 지원자의 성적이 어떻게 분포되어 있는지 확인해야 합니다. 만약 다른 전형에서도 높은 점수가 많이 나오고 있다면, 경쟁률이 더 높아질 수 있습니다.
+3. **추가 평가 요소**: 서류평가, 면접 등 추가 평가 요소도 중요한 역할을 합니다. 특히, 동의대학교는 학생부 종합전형에서 공동체역량, 학업역량, 전공적합성 등을 중점적으로 평가합니다.
+4. **추천서 및 특기사항**: 추천서나 특기사항 등이 있다면 이도 긍정적인 영향을 미칠 수 있습니다.
+따라서, 당신의 성적이 높은 점수를 받았다면 합격 가능성은 있지만, 경쟁률과 추가 평가 요소 등을 고려해야 합니다. 전형별로 지원하고, 서류와 면접 준비를 철저히 하는 것이 중요합니다.
+추가 정보나 자세한 조언이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.09529559780237845</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급으로 보이는데, 동의대학교 의료보건생활대학 간호학과의 지원자들의 평균 영어 등급을 보면 다음과 같습니다:
+- 2024학년도 최종등록자: 1.86 (최초합격자는 1.00)
+- 2024학년도 최초합격자: 1.00
+이러한 데이터를 바탕으로, 2.52라는 점수는 매우 낮은 등급입니다. 동의대학교 간호학과의 경우 영어 등급 평균이 1.86에서 1.00까지 다양하게 분포하고 있지만, 대부분이 1.00 이하로 낮은 수준입니다.
+따라서, 2.52라는 점수는 매우 낮은 등급으로, 최종 합격 가능성은 매우 낮습니다. 영어 능력 향상을 위해 추가적인 준비가 필요할 것으로 보입니다. 
+추가적으로, 간호학과의 경쟁률이 높아서, 성적이 조금이라도 높은 지원자가 많을 가능성이 있습니다. 따라서, 다른 전형이나 대학을 고려해보는 것도 좋은 방법일 수 있습니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.1227371075756046</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수이지만, 간호학과에 지원할 때 고려해야 할 요소는 다양합니다. 간호학과의 경우 일반적으로 다음과 같은 요인들이 중요하게 작용합니다:
+1. **학업 성적**: 평균적으로 3.5 이상의 GPA가 요구되곤 합니다.
+2. **서류 평가**: 학교생활기록부, 추천서 등이 중요한 역할을 합니다. 특히 간호사와 관련된 활동이나 경험은 긍정적인 평가를 받을 수 있습니다.
+3. **면접 성적**: 면접에서는 의사소통 능력, 공감능력, 책임감 등을 평가받습니다.
+4. **추천서 및 자기소개서**: 이는 지원자의 적합성과 열정을 보여주는 중요한 부분입니다.
+5. **진로 계획**: 간호사로서의 진로와 목표를 명확히 제시하는 것이 중요합니다.
+6. **기타 활동**: 봉사활동, 관련 동아리 활동 등이 긍정적인 평가를 받을 수 있습니다.
+3.7의 GPA는 좋은 성적입니다만, 간호학과에 합격하기 위해서는 위와 같은 요소들을 잘 준비하고 제출해야 합니다. 특히 서류평가에서 뛰어난 활동 경험이나 진로 계획이 있다면 이점이 크게 작용할 수 있습니다.
+따라서, 3.7의 GPA만으로 합격을 보장받기는 어렵지만, 충분히 가능성을 가지고 지원해보시는 것이 좋습니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시면 도움이 될 것입니다.
+[입학처 웹사이트 링크](https://ipsi.deu.ac.kr/main.do)를 참고하여 더 자세한 내용을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.06505400410246044</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집인원 및 지원자 수를 확인해보겠습니다.
+- **모집 인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 6.59
+2024년도 간호학과의 최종등록자의 성적 분포는 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 353.48
+- **영어 등급의 평균**: 2.34
+당신이 제시한 성적인 2.58은 이 수치보다 낮습니다. 그러나 정시 모집에서는 경쟁률과 지원자의 성적이 중요한 요소로 작용합니다.
+**추천 사항:**
+1. **성적 향상**: 마지막 학기에서 최선을 다해 성적을 높이는 것이 중요합니다.
+2. **서류 준비**: 서류 평가에서도 좋은 점수를 받을 수 있도록 철저히 준비해야 합니다.
+3. **면접 준비**: 면접에서도 긍정적인 이미지를 남기고, 간호사로서의 열정과 적합성을 잘 전달하는 것이 중요합니다.
+결론적으로, 현재 성적만으로는 낮은 경쟁률을 보이는 다른 학과나 전형을 고려해보는 것도 좋은 방법일 수 있습니다. 하지만 최선을 다하면 가능성이 있으므로, 철저히 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.1206997700603136</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到游戏学系（게임공학과）的具体录取情况。为了确定是否能被游戏学系录取，建议您关注以下几个方面：
+1. **个人成绩**：查看您的高考分数和相关科目成绩是否符合该专业的录取要求。
+2. **招生计划**：确认游戏学系的招生名额是否还有剩余。
+3. **录取标准**：了解具体的录取标准，包括高考成绩占比、面试或实操考试等。
+您可以访问学校官网（https://ipsi.deu.ac.kr/main.do）查看最新的招生信息和具体要求。如果有疑问，可以直接联系学校的招生办公室获取更详细的信息。
+希望这些信息对您有所帮助！如果需要进一步的帮助，请随时告知。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.1649708874904428</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 성적 반영방법은 다음과 같습니다:
+- **모집단위**: 전 모집단위
+- **수능 반영 영역**: 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 중 2개 과목)
+- **반영 비율**: 각 영역별로 25%
+게임공학과의 지원자들의 성적 분포를 보면:
+- 모집 인원: 3명
+- 지원 인원: 16명
+- 경쟁률: 5.33
+- 충원 합격 (후보순위): 3명
+이러한 정보를 바탕으로, 수능 성적이 4.16정도인 경우의 상황을 분석해볼 수 있습니다:
+1. **경쟁률**: 5.33이라는 경쟁률은 비교적 높지 않은 편입니다.
+2. **모집 인원 및 지원 인원**: 모집 인원이 3명이고, 지원 인원이 16명으로 많은 지원자가 있습니다.
+수능 성적이 4.16정도라면, 평균적인 수준의 지원자보다는 약간 낮은 편입니다. 그러나 경쟁률이 5.33이라는 점을 고려하면, 충원 합격인 3명 중에서 상위 성적자들이 선발될 가능성이 높습니다.
+**추정적인 추가 합격 가능성**:
+- **상위 1~2등급**: 경쟁률이 낮고 모집 인원이 적은 만큼, 수능 성적이 4.16정도인 지원자가 상위 등급을 받는 것은 가능성이 있습니다.
+- **3등급**: 이보다 낮은 등급으로 합격하는 경우는 더 어렵지만, 경쟁률이 높지 않은 점을 고려하면 일부 가능성은 있습니다.
+따라서, 수능 성적이 4.16정도라면 추가 합격 가능성이 있는 것으로 추정되나, 확실한 것은 아닙니다. 최종 합격 여부는 면접 등 다른 평가 요소와 함께 결정됩니다. 따라서, 지원 시에는 면접 준비를 철저히 하여 전반적인 경쟁력을 높이는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 확인하여 최신 정보와 자세한 지원 절차를 확인하는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.08749678996920808</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제의 경우, 학생부 교과성적 반영방법이 변경되었습니다. 특히 경영정보학과와 같은 모집단위에서는 성적이 중요한 요소 중 하나입니다.
+2023년과 비교해 2024년에는 다음과 같은 변화가 있었습니다:
+- 반영과목 수가 늘어났습니다 (전 모집단위: 12과목).
+- 진로선택과목의 반영이 가능하게 되었습니다.
+- 성적 등급의 반영 기준도 달라졌습니다.
+현재 경영정보학과에서 최초 합격자 발표는 2024년 2월 2일이며, 최종 합격자는 2월 13일까지 등록해야 합니다. 성적 3.75를 가지고 최초합격자로 등록 가능한지 여부는 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **성적 등급**: 경영정보학과의 경우, 반영과목 중 석차등급 상위 12과목을 기준으로 합니다.
+2. **전반적인 평가**: 서류평가와 면접평가 결과도 중요합니다.
+3. **모집정원 및 경쟁률**: 모집인원과 지원자의 수에 따라 결정됩니다.
+따라서, 성적 3.75만으로 최초 합격자로 등록할 수 있는지는 정확한 정보를 확인하기 위해 입학사정관제 홈페이지나 관련 공지사항을 참고하시거나, 동의대학교 입학처에 직접 문의하시는 것이 가장 확실합니다.
+추가적으로, 2024년도 입학사정관제에서는 학생부 교과성적 외에도 공동체역량, 학업역량, 전공적합성 등 다양한 평가 기준이 적용되므로, 성적이 좋은 만큼 다른 영역에서도 우수한 평가를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.07754323697442363</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도 경영정보학과의 최종 등록자 정보를 확인해보겠습니다.
+- **모집인원**: 9명
+- **지원 인원**: 95명
+- **경쟁률**: 10.56
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 313.13
+- **영어 등급의 평균**: 3.25
+이 정보를 바탕으로, 경영정보학과는 상당히 높은 경쟁률을 보이고 있습니다 (10.56). 성적이 4.2라면, 이 점수만으로 최초등록자로 선발될 가능성은 매우 낮습니다.
+**추가 정보:**
+- **전형요소**: 학생부종합
+- **평가 영역**: 공동체역량 (180점), 학업역량 (166.5점), 전공적합성 (153점)
+- **서류 평가 및 면접 평가**의 중요성이 매우 크므로, 단순히 성적이 높다고 해서 최초등록자로 선발될 확률은 낮습니다.
+**추천 조치:**
+1. **추가 활동 및 경험**: 창의적 체험활동, 동아리 활동 등 다양한 경험을 쌓고 기록해두세요.
+2. **면접 준비**: 면접 질문 공통문항 (지원동기 및 학업계획, 학업역량, 전공적합성)에 대한 답변을 미리 준비하세요.
+3. **추천서 및 추천인**: 가능하다면 교사나 지도교수의 추천서를 받으세요.
+이러한 조치들을 통해 최초등록자로 선발될 확률을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.0806362993540496</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 일반학생전형에서 수능 점수와 면접 성적이 함께 반영됩니다. 주요 정보는 다음과 같습니다:
+1. **수능 성적**:
+   - 전형요소 반영비율: 수능 70%, 면접 30%
+   - 모집인원: 9명
+   - 지원 인원: 95명 (경쟁률 10.56)
+   - 평균 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 313.13
+2. **면접 성적**:
+   - 면접은 학업역량과 전공적합성에 중점을 둡니다.
+   - 평가 영역 및 배점:
+     - 학업역량: 최고 180점
+     - 전공적합성: 최고 120점
+3. **전형 요소**:
+   - 수능 성적이 5.33이면, 표준 변환 점수로 환산하면 대략 400점대 중반에서 높은 점수가 나올 것입니다.
+   - 이 점수는 평균보다 약간 낮지만, 면접 성적이 좋은 경우 합격 가능성은 있습니다.
+4. **면접 준비**:
+   - 지원동기와 학업계획을 잘 준비해야 합니다.
+   - 전공적합성에 대한 이해도를 높이는 것이 중요합니다.
+   - 면접 질문 공통문항을 미리 익혀두는 것도 도움이 될 것입니다.
+따라서, 수능 성적이 5.33이라면, 면접 성적이 좋은 경우 합격 가능성은 있습니다. 하지만 경쟁률이 높아서 확실한 것은 아닙니다. 면접 준비를 철저히 하고, 지원동기와 전공적합성에 대해 잘 준비하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 채널을 통해 최신 정보를 확인하시고, 필요하다면 학교 관계자에게 상담을 받는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.06501297076973082</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대한 정보를 분석해보겠습니다.
+1. **모집인원 및 지원인원**:
+   - 모집 인원: 99명
+   - 지원 인원: 238명
+2. **경쟁률**:
+   - 경쟁률: 2.40 (238 / 99)
+3. **최초합격자 성적 평균 및 분산**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 311.13
+   - 표준 편차: 15.22
+4. **성적 평균과 비교**:
+   - 질문자의 성적: 3.33 (3등급)
+   - 최초합격자 성적 평균: 311.13
+   - 표준 편차: 15.22
+5. **성적 분석**:
+   - 질문자의 성적(3.33)은 최초합격자 성적 평균(311.13)보다 낮습니다.
+   - 표준 편차가 15.22이므로, 성적이 3등급인 경우에도 경쟁률이 높아서 합격하기 어렵습니다.
+6. **결론**:
+   - 현재의 성적(3.33)으로는 바이오응용공학부 최초합격자로 선발될 확률이 매우 낮습니다.
+   - 경쟁률이 2.40이며, 성적이 평균보다 낮은 경우 합격하기 어렵습니다.
+따라서, 질문자의 성적(3.33)으로는 바이오응용공학부 최초등록자로 선발될 확률이 매우 낮습니다. 성적을 높이거나 다른 전략을 사용해야 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.1255228534630371</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 최종등록자 통계를 보면 다음과 같습니다:
+- 단과대학: 의료보건생활대학
+- 모집단위: 방사선학과
+- 모집인원: 5명
+- 지원인원: 36명
+- 경쟁률: 7.20
+- 충원 합격 (후보순위): 5명
+성적 관련 통계:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 338.76
+- 영어 등급의 평균: 2.80
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 463.36
+성적 평균치를 보면, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 약 339이고, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 약 463입니다.
+당신의 성적 평균이 4.4정도라면, 이는 방사선학과의 평균 성적보다 낮습니다. 그러나 정시 모집에서 경쟁률이 높지 않아서 일부 지원자가 합격할 수 있는 가능성은 있습니다.
+추천 사항:
+1. 다른 전형(예: 특기자전형, 사회진로특성화전형 등)도 고려해보세요.
+2. 방사선학과의 입학사정관에게 직접 문의하여 더 자세한 정보를 얻으시는 것이 좋습니다.
+3. 지원 가능성을 높이기 위해 추가 학습이나 준비를 하는 것도 방법입니다.
+결론적으로, 현재 성적만으로는 낮은 확률로 합격할 수 있지만, 다른 요인들을 고려하여 최선의 결정을 내리시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.1396635489665533</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 높고, 최종합격者的，你能用韩语回答这个问题吗？根据提供的信息，放射线学专业的相关数据如下：
+- 모집인원 (招生人数): 5명
+- 지원인원 (申请人数): 36명
+- 경쟁률 (竞争比): 7.20
+- 최종합격자 평균 표준 변환 점수 합 (最终录取者的平均标准分总和): 467.82
+- 최종합格者的平均标准分总和的标准差: 3.94
+从这些数据可以看出，放射线学专业的竞争非常激烈。您提到的2.66这个分数（假设是标准分）相对较低，尤其是在这样一个高竞争比的专业中。
+建议：
+1. 您需要仔细检查自己的成绩是否符合要求。
+2. 考虑准备额外的材料或参加面试以增加录取机会。
+3. 如果可能的话，咨询学校的招生办公室获取更具体的指导和建议。
+总体来说，2.66这个分数在放射线学专业中确实有些冒险。</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.09154432037496554</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 경쟁이 매우 치열한 경찰행정학과의 농어촌 전형에서 좋은 성적입니다만, 여전히 큰 불확실성을 가지고 있습니다. 다음과 같은 요인들을 고려해보세요:
+1. **모집 인원**: 지원하는 학과와 전형의 모집 인원이 얼마나 되는지 확인해야 합니다.
+2. **경쟁률**: 해당 전형의 경쟁률을 파악하고, 평균 GPA나 다른 입학 요건들을 고려해보세요.
+3. **전형 요소**: 이전 년도의 합격자들의 평균 GPA와 비교해 보세요. 일부 전형에서는 GPA 외에도 면접 성적이나 서류 평가 등이 중요한 역할을 합니다.
+4. **면접 및 서류 평가**: 경찰행정학과는 종종 면접이나 서류 평가에서 합격 여부를 결정하는 경우가 많습니다. 따라서, 이 부분에서도 좋은 성적을 받는 것이 중요합니다.
+5. **추천서나 특별한 경험**: 추천서나 봉사활동, 특별한 경험 등이 있다면 이를 강조해보세요.
+6. **학교의 입학 정책**: 동의대학교의 합격 기준과 평가 방식을 다시 한 번 확인하세요. 특히 공동체역량, 학업역량, 전공적합성 등의 평가 요소를 잘 준비해야 합니다.
+7. **예전 합격자들의 성적 분석**: 동의대학교 입학 홈페이지나 입학처에 있는 정보를 참고해보세요. 예전 합격자의 GPA와 비교해볼 수 있습니다.
+결론적으로, 3.66이라는 좋은 GPA는 큰 장점이지만, 경쟁률과 전형 요소 등을 고려해야 합니다. 최선을 다하고 준비한 결과가 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.1109710898579719</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 그러나 정시 합격 여부는 여러 요인에 따라 결정되므로 완전히 배제할 수는 없습니다. 주요 고려사항들은 다음과 같습니다:
+1. 모집인원과 지원자 수: 현재 모집인원이 얼마나 되며, 지원자가 몇 명인지 확인해야 합니다.
+2. 전형방법: 실기/실적 위주인지, 수능 위주인지 등 전형 방법에 따라 합격 가능성은 달라질 수 있습니다.
+3. 개인 성적과 경쟁력: 자신의 수능 점수와 지원과목의 성적이 얼마나 높았는지 확인해야 합니다.
+4. 서류 및 실기 평가 결과: 서류평가나 실기고사 등 다른 요소에서 좋은 점수를 받았다면 합격 가능성은 높아집니다.
+5. 입학사정관의 판단: 일부 전형에서는 입학사정관의 주관적인 판단이 큰 영향을 미칠 수 있습니다.
+현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 하지만 25위권은 매우 높은 순위로, 합격 가능성은 낮다고 볼 수 있습니다. 그러나 최선을 다해 준비하고, 가능한 모든 점수와 자료를 잘 준비한다면 작은 가능성도 열어두는 것이 좋습니다.
+추가 정보나 자세한 분석이 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1112555574185556</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학과의 모집인원, 지원자수 및 경쟁률을 보면 다음과 같습니다:
+- 모집 인원: 7명
+- 지원 인원: 40명
+- 경쟁률: 5.71
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 315.78이며, 표준 편차는 6.84입니다.
+이러한 데이터를 바탕으로 추정해보면:
+- 안정적인 합격을 위해서는 최소 300점 이상은 필요할 것으로 보입니다.
+- 문을 닫고 들어갈 수 있는 점수는 평균보다 약간 높아서 320점 정도를 목표로 하는 것이 좋을 것 같습니다.
+하지만 이는 추정치이며, 실제 합격선은 입학사정관 심사 등 다양한 요인에 따라 변동될 수 있습니다. 따라서 최대한 높은 점수를 받고자 한다면 320점 이상을 목표로 하는 것이 좋습니다.
+추가적으로, 동의대학교는 학생부 종합전형도 운영하고 있으므로, 학생부 성적과 면접 등 다른 평가 요소들도 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2464144612220599</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 경우, 모집단위와 지원자의 성적 등급을 고려하여 답변 드리겠습니다.
+보육가정상담학과는 일반학생전형으로 모집되며, 수능성적 반영방법은 다음과 같습니다:
+- 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 중 영역 관계없이 2개 과목)
+- 각 영역별 반영비율은 25%
+보육가정상담학과의 경우, 수능 성적이 중요합니다. 정시 산출 등급이 5.33인 경우, 수능에서 국어, 수학, 영어, 탐구 중 어느 영역에서도 좋은 성적을 받았다면 합격 가능성은 있습니다.
+하지만, 경쟁률과 지원자의 전체 성적이 고려되어야 합니다. 예를 들어:
+- 2024년도 보육가정상담학과 모집인원이 30명이고 지원자가 150명이라면, 경쟁률은 약 5:1입니다.
+- 지원자의 수능 등급 평균이 4.8 이상일 경우, 5.33 등급의 지원자는 상대적으로 높은 점수를 받았다고 볼 수 있습니다.
+따라서 정시 산출 등급이 5.33이라면, 경쟁률과 전체 지원자의 성적 분포를 고려할 때 합격 가능성은 있지만 확실하지 않습니다. 최종 합격 여부는 수능 성적이 어떻게 반영되는지와 함께 전체 지원자들의 성적 분포에 따라 결정됩니다.
+추가적으로, 학생부 종합 평가 결과도 중요한 요소이므로, 학교생활기록부를 잘 준비하고 면접에서도 좋은 인상을 남기는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.107635076092911</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 19:00부터
+- **충원 합격자 3차 등록**: 개별 전화 통보 시 안내
+이 정보만으로는 정확한 합격 가능성 판단하기 어렵습니다. 하지만 충원 합격자 발표가 진행되는 동안, 예비 12번을 받았다면 합격 가능성은 있습니다.
+**추천 사항:**
+1. **발표 확인**: 2024. 02. 15.(목) 19:00부터 홈페이지에서 개별 조회를 통해 자신의 상태를 확인하세요.
+2. **등록 준비**: 만약 합격이 발표되면, 등록금 납부와 등록 절차를 신속하게 진행해야 합니다 (등록금 고지서에 기재된 지정은행에서 납부).
+3. **대기 자세**: 충원 합격자 3차 이후에도 학교에서는 추가로 합격자를 발표할 수 있으므로, 대기 자세를 유지하는 것이 좋습니다.
+학과와 모집단위에 따라 상황이 다르므로, 최종 결정을 내리기 전까지는 입학 안내 홈페이지에서 공식 정보를 확인하시길 권장드립니다. 필요하다면 학교 입학관리팀으로 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2807847761344128</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 등급평균은 상당히 높은 점수입니다. 하지만 유아교육학과에 지원할 때 수능 성적뿐만 아니라 다른 요소들도 고려됩니다.
+1. **전반적인 경쟁률**: 유아교육학과의 경쟁률을 확인해야 합니다. 만약 경쟁률이 낮다면, 4.75의 등급평균으로 충분히 합격할 수 있습니다.
+2. **모집인원 및 지원자 수**: 모집인원과 지원자의 수를 고려해야 합니다. 모집인원이 적고 지원자가 많으면 경쟁률이 높아질 수 있습니다.
+3. **전형별 평균 등급**: 각 전형별로 평균 등급을 확인해 보세요. 만약 해당 학과의 평균 등급이 4.75 이상이라면, 당신의 점수가 경쟁력 있을 것입니다.
+유아교육학과는 일반적으로 수능 성적이 높은 지원자가 많기 때문에, 4.75의 등급평균으로도 어렵게 느껴질 수 있습니다. 하지만 최종 결정을 내리기 위해서는 해당 학과의 정확한 모집인원, 지원자 수, 그리고 평균 등급 등을 확인해야 합니다.
+추가적으로, 다른 요소들도 중요합니다:
+- **면접 성적**: 면접에서도 좋은 점수를 받았다면 이점이 유리할 수 있습니다.
+- **서류평가 결과**: 서류평가에서 높은 점수를 받았다면 이 또한 큰 도움이 될 것입니다.
+따라서, 정확한 정보를 확인하고 전략을 세우는 것이 중요합니다. 필요하다면 입학처나 관련 학과에 문의해 보세요.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.162597242754934</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집에서 보육가정상담학과의 경쟁률과 등급 평균을 고려해보겠습니다.
+1. **최근 경쟁률 및 등급 평균**:
+   - 보육가정상담학과는 2023년도에 약 4.5:1의 경쟁률이었습니다.
+   - 지원자의 수능 등급 평균은 대체로 3.8-4.0 사이였습니다.
+2. **당신의 상황**:
+   - 현재 학생부종합 평가를 통해 추합까지 생각하고 계시는 것으로 보입니다.
+   - 동의대학교의 수능 등급 평균은 대체로 3.8-4.0 사이였습니다.
+3. **추합 점수**:
+   - 수능 4개 영역 (국어, 수학, 외국어, 과탐)의 평균 등급이 4.16이라면, 이는 대체로 좋은 성적입니다.
+   - 동의대학교의 수능 등급 평균을 고려하면, 4.16은 경쟁력 있는 점수라고 볼 수 있습니다.
+4. **추합 결과**:
+   - 추합 점수가 300점 이상이면 보통 합격 가능성이 높습니다.
+   - 현재 등급 4.16로는 대체로 300점을 넘을 것으로 예상됩니다.
+5. **결론**:
+   - 당신의 수능 등급은 경쟁력이 있으며, 추합 점수도 충분히 가능할 것으로 보입니다.
+   - 그러나 최종 합격 여부는 서류평가와 면접 평가 등 다양한 요소에 따라 결정되므로, 철저한 준비가 필요합니다.
+추합 점수가 300점 이상이면 보통 합격 가능성이 높으나, 확실한 것은 입학사정관의 평가와 면접 성적입니다. 따라서 서류와 면접에서도 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.1206569882038123</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(소프트웨어융합학과)를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다.
+1. **전형 유형**: 소프트웨어공학부는 주로 학생부종합전형을 통해 선발되며, 일부 단과대학에서는 수능일반학생전형으로도 지원 가능합니다.
+2. **평균 등급**:
+   - **수능일반학생전형**: 
+     - 평균 등급은 4.0 이상이 필요하며, 특히 수학 영역의 성적이 중요합니다.
+     - 예를 들어, 수능 4개 영역 (국어, 수학, 외국어, 과탐) 중 수학 영역에서 높은 점수를 받는 것이 중요합니다. 
+   - **학생부종합전형**: 
+     - 학생부 종합 평가에서는 학업역량과 전공적합성에 중점을 두므로, 관련 과목 성적이 좋고, 프로젝트나 활동 경험이 있는 경우 유리합니다.
+3. **추천 등급**:
+   - **수능일반학생전형**: 
+     - 수학 4.5 이상, 외국어 3.0 이상, 국어와 과탐은 평균 4.0 정도를 목표로 하면 좋습니다.
+   - **학생부종합전형**: 
+     - 학업역량과 전공적합성에 중점을 두므로, 관련 과목 성적이 높고, 프로젝트나 활동 경험이 있는 경우 유리합니다.
+4. **추가 정보**:
+   - 정시모집에서는 수능 점수와 학생부 종합 평가를 모두 고려하므로, 두 가지 측면에서 높은 성적을 유지하는 것이 중요합니다.
+   - 지원 전에 해당 단과대학의 공식 입학요강을 확인하여 최신 정보를 파악하고, 필요하면 학교 관계자와 상담해 보는 것도 도움이 될 수 있습니다.
+따라서, 소프트웨어공학부를 정시로 지원하려면 적어도 4.0 이상의 등급을 목표로 하되, 특히 수학 영역에서 높은 점수를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.02032299328429805</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2024학년도의 입학전형에서 소프트웨어융합학과에 지원할 때, 면접 점수와 서류 평가의 비중은 다음과 같습니다:
+- **면접 점수**: 40점 (총 100점 중)
+- **서류 평가 점수**: 60점 (총 100점 중)
+따라서, 서류 평가에서의 내용이 중요한 역할을 합니다. 특히, 소프트웨어융합학과는 학생부종합(조기취업형계약학과전형)으로 지원하므로, 면접에서는 학업역량과 전공적합성에 대한 질문이 주로 이루어질 것입니다.
+### 서류 준비 사항
+1. **학생부**: 
+   - 학교생활기록부 (온라인 제공 동의자에게는 온라인으로 제공 받음)
+   - 교과 성적 및 진로선택 과목 성적
+   - 창의적 체험활동, 동아리 활동, 진로활동 등
+2. **면접 준비**
+   - 지원동기와 학업계획에 대한 답변 준비
+   - 고교 생활 중 겪은 어려움과 이를 극복한 경험 및 노력을 설명
+   - 본인이 의미를 두고 노력했던 전공(계열) 관련 교내 활동을 소개
+3. **추가 서류 (필요시)**:
+   - 특정 활동이나 프로젝트에 대한 자세한 내용 기재 (예: 동아리활동, 진로활동 등)
+   - 관련 자격증 또는 수상 경력 등
+### 주의사항
+- **학교생활기록부 작성**: 학생이 직접 작성하는 것이 아니라 교사와 협력하여 작성해야 합니다. 학교 밖에서의 경험은 적절히 기재되어야 하며, '저는'으로 시작하는 내용이어야 합니다.
+- **과장된 내용 피하기**: 창의적 체험활동이나 동아리 활동 등에 대한 세부 내용을 과장해서 기재하지 않도록 주의해야 합니다.
+### 결론
+서류 평가와 면접 점수가 중요하므로, 서류 준비는 충분히 해두고 면접에서는 학업역량과 전공적합성에 대한 답변을 철저하게 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.0710402210807726</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024学年东国大学软件工程学部（一般学生入学考试）的录取标准**：根据提供的信息，我们可以看到一些关于该专业的统计数据。例如：
+   - 国语 + 数学 + 探索(2个) (加分后) 标准转换分数总和的平均值为 318.40。
+   - 国语 + 数学 + 探索(2个) (加分后) 标准转换分数总和的标准差为 5.76。
+2. **你的成绩**：你提到的成绩是4.08，这看起来像是一个标准化考试的分数。我们需要将其与上述统计数据进行比较。
+3. **竞争情况**：
+   - 招生人数为7人。
+   - 报名人数为19人。
+   - 竞争比为2.71。
+   - 最终录取（候补）人数为4人。
+   - 国语 + 数学 + 探索(2个) (加分后) 标准转换分数总和的平均值为 318.40，标准差为 5.76。
+根据这些信息，我们可以进行以下分析：
+- **成绩对比**：你的成绩（假设是国语+数学+探索的标准转换分数）需要高于或至少接近于318.40。由于标准差为5.76，这意味着大多数学生的分数集中在312.64到324.16之间。
+- **竞争情况**：虽然你的成绩略低于平均值，但考虑到竞争比是2.71，并且最终录取了4人，这表明录取线可能相对较低。此外，由于你提到的成绩接近于平均值，理论上还是有可能被录取的。
+综上所述，尽管你的成绩（假设为国语+数学+探索的标准转换分数）略低于平均值，但考虑到竞争人数较少以及标准差较小的情况，你仍然有一定的机会被东国大学软件工程学部录取。建议仔细检查你的具体分数，并参考其他申请者的具体情况来做出更准确的判断。如果有疑问，可以咨询学校的招生办公室获取更多信息。</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.03051106025934401</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 소프트웨어융합학과의 경우 다음과 같은 특징이 있습니다:
+1. 모집인원: 7명
+2. 지원 인원: 53명
+3. 경쟁률: 약 7.57대 1 (53/7)
+4. 충원 합격자: 7명
+5. 평균 등급:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 381.06
+   - 영어 등급의 평균은 4.57
+   - 수능 4개 영역 등급의 평균은 4.92
+이 정보를 바탕으로, 평균 5등급으로는 충분히 지원 가능할 것으로 보입니다. 실제로 이 학과에서는 평균적으로 381점대의 표준 변환 점수와 4.57 등급을 기록하고 있습니다.
+그러나 최종 결정은 여러 요인에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 대학 입학처 웹사이트나 전화로 확인하는 것이 좋습니다. 또한 개인의 성적과 경쟁률 변동 등을 고려하여 지원 여부를 판단해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.1631897381079636</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 경쟁률과 지원자들의 성적 분포를 고려하면 쉽지 않을 것으로 보입니다.
+다음은 관련 정보입니다:
+1. **신소재공학과 모집인원 및 지원자 수**:
+   - 2024년도 신소재공학과는 모집 인원이 56명이며, 지원 인원은 81명으로 경쟁률이 1.45입니다.
+2. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 271.64
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 19.52
+3. **성적 비교**:
+   - 평균 점수가 271.64이고, 표준 편차가 19.52라는 것은 성적이 상대적으로 분산되어 있다는 것을 의미합니다.
+   - 4.28이라는 점수는 평균보다 약간 높은 수치이지만, 표준 편차를 고려하면 중위권에 해당할 것입니다.
+4. **경쟁률**:
+   - 경쟁률이 1.45라는 것은 지원자들이 많아서 선발 인원을 초과하는 경우가 많습니다.
+   - 이는 성적이 높은 학생들이 많이 지원하기 때문에, 평균 이상의 점수를 가지고 있어야 안전한 입학 가능성을 보장받을 수 있습니다.
+따라서 4.28이라는 성적만으로는 신소재공학과에 확실하게 들어갈 수 있는 것은 어렵다고 볼 수 있습니다. 추가적으로 실기나 특기사항, 학생부 등 다양한 요인들을 고려하여 지원하는 것이 좋을 것입니다. 또한, 다른 전공들도 고려해보시고, 여러 대학에서 지원하는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1198952487841377</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 입시에서는 수능 일반학생전형과 실기/실적 전형에 대해 다음과 같은 점을 유의해야 합니다:
+1. **자기소개서 작성 필요 여부**:
+   - **수능 일반학생전형**: 자기소개서는 필수적으로 제출해야 하는 항목이 아닙니다.
+   - **실기/실적 전형 (디자인조형학과, 체육학과 등)**: 자기소개서는 일부 모집단위에서 요구될 수 있으므로 확인이 필요합니다.
+2. **필수 서류**:
+   - 모든 지원자는 학생부 온라인 제공 동의가 있는 경우 학생부를 온라인으로 제공 받을 수 있습니다.
+   - 검정고시출신자 또는 외국고교 졸업(예정)자는 특정 서류를 제출해야 합니다.
+3. **추천서 및 자기소개서 등 추가 서류**:
+   - 일부 전형에서는 추천서나 자기소개서 등의 추가 서류가 요구될 수 있으므로, 해당 전형의 공지사항을 꼭 확인해보세요.
+4. **제출 기한**:
+   - 원서접수는 2024년 1월 3일(수)부터 6일(토)까지이며, 서류 제출은 같은 날짜 내에 마감됩니다.
+   - 실기고사는 각각의 일정에 맞춰 준비해야 합니다.
+따라서 수능 일반학생전형으로 지원할 때는 자기소개서를 필수적으로 작성하지 않아도 됩니다. 하지만, 추가 서류가 요구되는 경우에는 해당 전형의 공지사항을 확인하고 필요한 서류를 제출해야 합니다. 자세한 내용은 [동의대학교 입학정보 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.02799075088231714</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수가 주어졌을 때, 동의대학교 수능 정시 모집에서 합격 가능성은 다음과 같이 판단할 수 있습니다:
+1. **단과대학 및 모집단위**: 의료보건생활대학, 공과대학, ICT융합공과대학 등이 4.5 이상의 점수를 요구하는 경우가 많습니다.
+2. **경쟁률**: 각 단과대학/모집단위별 경쟁률을 확인해야 합니다. 경쟁률이 높은 곳에서는 4.5로 합격하기 어렵겠지만, 경쟁률이 낮은 곳에서는 가능성이 있습니다.
+3. **충원 합격자 수**: 각 모집단위의 충원 합격 (후보순위) 수를 확인해야 합니다. 예를 들어, 4.5가 충원 합격 점수보다 높다면 추가모집 가능성이 있습니다.
+4. **추가모집 정보**: 동의대학교의 추가모집 방침을 확인하세요. 일부 대학에서는 추가모집 시 특정 점수 이상만 지원할 수 있도록 제한하는 경우도 있으므로, 공식 홈페이지나 입학처에 문의하시는 것이 좋습니다.
+5. **성적 분포**: 각 모집단위별 성적 분포를 살펴보세요. 평균점수가 4.5보다 낮다면 추가모집 가능성이 높아질 수 있습니다.
+6. **가산점**: 일부 단과대학/모집단위에서는 수학 가산점을 적용하므로, 이 점수도 고려해야 합니다.
+7. **기타 요인**: 학생부 성적, 자기소개서 등 기타 평가 항목의 영향을 고려해야 합니다.
+따라서, 4.5라는 점수가 어느 단과대학/모집단위에서 충원 합격 점수보다 높다면 추가모집 가능성이 있습니다. 하지만 확실한 답변을 위해서는 동의대학교 입학처나 공식 홈페이지를 통해 확인하는 것이 가장 정확합니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 
+이 링크를 클릭하여 동의대학교의 공식 웹사이트에서 추가 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2150420436147329</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과에 대한 정확한 합격 기준을 알기 위해서는 여러 요인들을 고려해야 합니다. 하지만 주어진 정보만으로 추론해보면 다음과 같은 점들이 중요합니다:
+1. **수능 성적 반영 방식**: 수능 성적이 학생부 종합 평가와 함께 반영되며, 각 영역별로 25%씩 반영됩니다.
+2. **전형별 특징**:
+   - **나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 이 전형에서는 수능 성적이 중요한 요소로 작용합니다.
+   - **가군, 다군 수능(일반학생전형)**: 이 전형에서도 수능 성적은 합격 가능성을 크게 좌우하는 요인입니다.
+3. **수능 성적 분포**:
+   - 2024학년도 최종등록자와 최초합격자의 수능 성적을 보면, 신소재공학과의 경우 평균 점수가 상대적으로 높습니다.
+   - 예를 들어, **최종등록자**에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 378.15이며, **최초합격자**에서는 399.26입니다.
+4. **경쟁률과 모집인원**: 신소재공학과는 경쟁률이 높고 모집인원이 많지 않기 때문에, 평균 이상의 성적이 필요할 것으로 예상됩니다.
+따라서, 2024학년도 동의대학교 신소재공학과에 합격하기 위해서는 **수능 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 380 이상** 정도를 목표로 설정하는 것이 좋을 것으로 추정됩니다. 하지만 이는 예측이며, 실제 합격 가능성을 결정하기 위해서는 최종 입학사정관의 판단과 경쟁률 등 다양한 요인을 고려해야 합니다.
+추가적으로, 정확한 합격 기준은 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 통해 확인하거나, 입학처에 직접 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.06211988003267303</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과와 고분자나노공학과의 경우, 지원 인원이 많고 경쟁률이 높아서 충원 합격자는 25명으로 보입니다. 작년에 비해 표준점수가 약간 상승한 것은 일반적인 추세일 수 있습니다.
+현재 제공된 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **경쟁률과 지원 인원**: 신소재공학과와 고분자나노공학과는 많은 지원자가 경쟁하고 있으므로, 표준점수가 약간 상승하는 것은 가능합니다.
+2. **표준 변환 점수의 편차**: 제공된 데이터에서 표준 변환 점수 합의 표준 편차가 19.52로 높습니다. 이는 점수 분포가 넓다는 것을 의미하며, 작년과 비교해 약간의 변화가 있을 수 있습니다.
+3. **경쟁률**: 작년에 비해 경쟁률이 상승했을 가능성도 있으므로, 표준점수가 약간 상승하는 것은 자연스러운 현상일 수 있습니다.
+4. **모집 인원과 충원 합격자 수**: 작년에는 56명 모집 인원에 25명의 충원 합격자가 있었으므로, 작년보다 지원자가 더 많아졌을 가능성이 있습니다.
+따라서, 작년 신소재공학과 표준점수가 447점보다 약간 높았다면, 작년보다 지원자가 늘어난 상황에서 447점으로도 충원 합격이 가능한 가능성은 있습니다. 하지만 확실한 것은 아니므로, 최종 결과는 입학사정관의 평가와 경쟁률 등 다양한 요인에 따라 결정될 수 있습니다.
+추가적으로, 동의대학교의 정시 모집 결과를 확인하거나, 입학처에 직접 문의하는 것이 가장 정확한 정보를 얻을 수 있는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.0971052470136631</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환된다면, 신소재공학과의 경우 경쟁률이 상대적으로 높지 않은 모집단위일 수 있지만 여전히 합격하기는 어렵습니다.
+신소재공학과의 경우 다음과 같은 특징을 고려해야 합니다:
+1. **경쟁률**: 2024년도 지원자 중에서 신소재공학과 모집인원(56명)에 대한 지원자는 81명으로, 경쟁률이 약 1.45입니다.
+2. **성적 평균**: 지원자의 성적 평균은 5.78 등급이며, 표준 편차는 0.49입니다. 이는 신소재공학과의 합격 기준을 상회합니다.
+3. **표준 변환 점수 평균**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 378.15이며, 표준 편차는 21.81입니다.
+4. **성적 등급**: 신소재공학과의 합격 기준 성적 등급은 대체로 높습니다. 4.3등급이 4.1~4.2로 변환된다면, 이는 평균 이상의 성적이지만 경쟁률을 고려하면 여전히 낮은 확률입니다.
+따라서:
+- **확실한 합격**: 현재로서는 어렵습니다.
+- **가능성**: 매우 낮지만, 일부 입학사정관이 특별한 상황을 고려할 수 있으므로, 최선을 다해 지원하는 것이 좋습니다.
+- **추천사항**:
+  - 추가적인 실적이나 활동 증빙서류를 첨부하여 합격 가능성 높이기
+  - 면접 준비도 철저히 하여 전반적인 평가에서 우수한 점수 받기
+결론적으로, 현재의 성적이 신소재공학과에 합격하기는 어렵지만, 최선을 다해 지원하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2453902117280158</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최종 등록자의 성적 정보를 확인해보겠습니다.
+- **모집인원**: 15명
+- **지원인원**: 24명
+- **경쟁률**: 1.60
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 293.11
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 14.35
+- **영어 등급의 평균**: 4.53
+- **영어 등급의 표준 편차**: 0.80
+- **수능 4개 영역 등급의 평균**: 5.25
+- **수능 4개 영역 등급의 표준 편차**: 0.35
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이 정보를 바탕으로, 인공지능학과에 지원하려는 경우 평균적인 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균인 293.11을 넘어야 합니다. 특히, 영어 등급도 중요하며 평균이 4.53이고, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 403.85입니다.
+따라서, 국어와 수학, 탐구 과목에서 높은 점수를 받고 영어 등급도 좋은 성적을 유지한다면 경쟁력을 갖추게 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.355318881956143</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 등급은 상당히 높은 점수입니다. 하지만 실제로 어떤 학과에 지원할 수 있는지는 여러 요인에 따라 달라질 수 있습니다:
+1. 모집단위별 경쟁률: 각 학과의 경쟁률이 매우 중요합니다. 경쟁률이 높으면 같은 등급이라도 낮은 순위에서 탈락할 가능성이 큽니다.
+2. 지원자의 전체 성적 분포: 동일한 등급을 가진 많은 지원자가 있을 경우, 평균적인 입학 점수가 더 높아질 수 있습니다.
+3. 학과 별 모집인원: 모집인원이 적은 학과는 같은 등급이라도 낮은 순위에서 탈락할 가능성이 큽니다.
+4. 추가 평가 요소: 일부 학과에서는 면접이나 서류평가 등 다른 요소를 고려하므로, 수능 성적만으로 결정되는 것은 아닙니다.
+5. 전형 방식: 정시 모집의 경우 일반전형 외에도 특별전형이 있을 수 있으니, 이를 고려해야 합니다.
+6. 학과 별 요구사항: 일부 학과는 특정 과목 등급을 요구하기도 하므로, 이 점도 확인해야 합니다.
+따라서 5.27이라는 등급으로 추합 가능한 학과들은 다음과 같습니다:
+- 경쟁률이 낮은 학과들
+- 모집인원이 많은 학과들 
+- 추가 평가 요소를 요구하지 않는 학과들
+확실한 답변을 위해서는 해당 대학의 정시 모집요강을 꼭 확인하시고, 지원 가능성이 있는 학과들을 선별해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.173643440163739</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 영어 등급은 상당히 낮은 점수입니다. 하지만 소프트웨어공학부에 지원할 때, 수능 성적이 주요한 평가 요소 중 하나이므로, 수능 성적과 학생부 성적을 모두 고려해야 합니다.
+주요 평가 요소는 다음과 같습니다:
+1. **수능 성적**:
+   - 소프트웨어공학부의 경쟁률은 높습니다 (예: 487).
+   - 평균 수능 점수가 상당히 높습니다 (예: 330.11, 325.15 등).
+2. **학생부 성적**:
+   - 영어 등급이 낮은 경우, 학생부에서의 활동과 성취도가 중요해집니다.
+   - 창의적 체험활동, 동아리 활동, 진로 탐색 활동 등을 잘 기재하고 있어야 합니다.
+3. **추천서 및 자기소개서**:
+   - 강력한 추천서와 자기소개서가 필요할 수 있습니다.
+   - 자신의 열정과 목표를 명확히 표현해야 합니다.
+4. **면접 성적**:
+   - 면접에서도 창의성, 문제 해결 능력 등을 잘 보여줘야 합니다.
+추천사항:
+1. **학생부 활동 강화**: 
+   - 다양한 프로젝트나 동아리 활동에 참여하여 경력을 쌓고 기록해두세요.
+   - 진로 탐색 과정에서의 성과와 경험을 자세히 기재하세요.
+2. **추천서 작성**:
+   - 교사, 학교 관계자 등으로부터 강력한 추천서를 받으세요.
+3. **면접 준비**:
+   - 면접 질문 공통문항을 미리 준비하고 연습해보세요.
+   - 자신의 열정과 목표에 대해 명확하게 표현할 수 있도록 하세요.
+4. **추가 지원 자격 확인**:
+   - 학생부종합(평생학습자전형) 등 다른 전형도 고려해볼 만합니다.
+결론적으로, 4.2의 영어 점수로는 소프트웨어공학부에 충분히 입학할 수 있는 확률은 낮지만, 학생부와 추천서 등을 잘 준비한다면 기회를 잡을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.08006530373141595</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 요소들을 고려해야 합니다.
+1. **모집인원 및 경쟁률**: 화학환경공학부의 모집인원과 경쟁률을 확인해야 합니다. 예를 들어, 만약 모집인원이 적고 경쟁률이 낮다면 더 높은 점수도 충분히 합격할 수 있습니다.
+2. **성적 산출방법**: 동의대학교의 성적 산출 방법을 확인해야 합니다. 주요 반영 영역과 가산점 등을 고려해야 합니다. 예를 들어, 화학환경공학부는 특정 과목(화학, 물리 등)에 대한 표준점수와 등급 점수가 중요할 수 있습니다.
+3. **등급 변환표**: 국어, 수학, 영어 등의 등급 변환표를 확인해야 합니다. 3.92라는 점수는 어떤 등급을 의미하는지 확인해야 합니다.
+4. **가산점**: 특정 과목(예: 화학)에 대한 가산점을 받았다면 이 또한 고려해야 합니다.
+5. **전형요소 반영비율**: 전형요소 중 수능 점수와 실기/실적, 서류 등이 어떻게 반영되는지 확인해야 합니다.
+6. **최종 합격자 평균점수**: 과거의 최종 합격자들의 평균 점수를 참조하여 현재 점수가 어느 수준인지 판단할 수 있습니다.
+위와 같은 요소들을 종합적으로 고려하면, 3.92라는 점수로 화학환경공학부 일반학생전형에 지원 가능성을 판단할 수 있을 것입니다. 그러나 가장 정확한 판단을 위해서는 동의대학교의 공식 홈페이지나 입학처에 직접 문의하는 것이 좋습니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+이 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.07741251156410503</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 수능 일반학생전형을 통해 화학환경공학과에 지원할 수 있습니다. 하지만 지원 가능한 학과와 모집인원, 전형 요소 등이 변경되었거나 추가된 점을 고려해야 합니다.
+1. **모집단위 및 모집인원 확인**: 먼저 2024년도 화학환경공학과의 모집단위와 모집인원을 확인해보세요. 만약 해당 학과가 모집 중지나 변경되었다면 지원이 불가능할 수 있습니다.
+2. **전형 요소 및 반영 비율**: 2024년도 전형요소 반영비율은 수능 100%로, 실기 등 다른 요소는 반영되지 않습니다. 따라서 수능 점수만이 중요합니다.
+3. **성적 평균 확인**: 제공된 성적이 4.25라면, 이는 수능 영어 등급으로 보아야 합니다 (4등급). 하지만 수능 전형성적 산출방법은 국어 + 수학 + 탐구(2개)의 표준점수를 합산하여 평균을 내는 방식입니다. 따라서 단순히 4.25만으로 판단하기보다는 전체 수능 성적을 확인해야 합니다.
+4. **전형 요건**: 지원 가능한 전형이 수능 일반학생전형이라면, 해당 학과의 모집인원과 지원 인원 등을 고려하여 경쟁률을 예측할 수 있습니다.
+5. **최종 결정**: 최종적으로는 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나, 입학처에 직접 문의하는 것이 가장 정확한 방법입니다. 입학처에서는 각 학과별 모집인원, 지원 가능 여부 등 최신 정보를 제공합니다.
+따라서, 현재로서는 수능 점수 4.25로 화학환경공학과에 지원이 가능하지만, 최종 결정을 내리기 위해서는 동의대학교 입학처 웹사이트나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.115531095496525</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 영화학과를 지원하셨다면, 합격 가능성은 낮다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **영화학과의 경쟁률**: 영화학과는 일반적으로 인기 있는 전공 중 하나로, 많은 지원자가 있습니다. 이에 따라 입학사정관들이 고득점자를 선호할 가능성이 높습니다.
+2. **전형요소 반영비율**: 영화학과의 경우 실기/실적 위주 전형일 가능성이 높으므로, 수능 점수보다는 실기 성적이 더 중요하게 평가될 것입니다.
+3. **면접 및 실기**: 영화학과에서는 면접이나 실기 시험에서 창의성과 표현력 등을 중점적으로 평가합니다. 이 부분에서 높은 점수를 받지 못하면 합격 가능성은 낮아집니다.
+4. **전형요소 반영비율**: 영화학과는 일반적으로 실기 70%, 수능 30%로 구성되므로, 수능 성적이 낮다면 합격 가능성은 더욱 낮아질 것입니다.
+5. **학생부 및 서류 평가**: 학생부와 서류 평가는 창의성과 경험 등을 종합적으로 판단하기 때문에, 이 부분에서도 높은 점수를 받지 못하면 불리합니다.
+이러한 상황에서 4.2의 성적을 가지고 합격하는 것은 어렵다고 볼 수 있습니다. 하지만 최선을 다해 준비하고, 면접이나 실기 시험에서는 창의성과 표현력을 잘 보여주면 좋은 결과를 얻을 수 있을 것입니다.
+추가적으로, 입학사정관들이 지원자의 전반적인 역량을 종합적으로 평가하기 때문에, 창의적 활동이나 특별한 경험 등을 강조하는 것이 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.08260744190020505</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8617886178861789</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3869486451898461</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2863823380137978</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.2332877858470009</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3366654916018219</v>
+      <c r="D305" t="n">
+        <v>0.3022062563502149</v>
       </c>
     </row>
   </sheetData>
